--- a/biology/Histoire de la zoologie et de la botanique/Herbert_Lang/Herbert_Lang.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Herbert_Lang/Herbert_Lang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbert Lang est un zoologiste allemand, né le 24 mars 1879 à Öhringen dans le royaume de Wurtemberg et mort le 29 mai 1957 dans les environs de Pretoria.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence à travaille comme taxidermiste à Wurtemberg puis au muséum d'histoire naturelle de Zurich. Il travaille, toujours comme taxidermiste chez Fasse et Cie à Paris entreprise fournissant des spécimens d'histoire naturelle pour les écoles de France.
 Il émigre en 1903 aux États-Unis et est embauché par le National Museum of Natural History comme taxidermiste la même année. Durant trois ans, il travaille sur des dioramas et des expositions d'oiseaux. Il participe en 1906 à une première expédition en Afrique conduite par le chasseur Richard Tjader et qui est chargée de collecter des spécimens au Kenya. L'expédition rapportera 178 spécimens de mammifères et 232 oiseaux. C'est Lang lui-même qui assurera le catalogue et les préparations des spécimens.
